--- a/data_year/zb/农业/农村居民家庭平均每人出售主要畜产品及水产品.xlsx
+++ b/data_year/zb/农业/农村居民家庭平均每人出售主要畜产品及水产品.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,401 +478,91 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.59787463</v>
+        <v>10.5</v>
       </c>
       <c r="C2" t="n">
-        <v>5.820839245</v>
+        <v>11.13088259</v>
       </c>
       <c r="D2" t="n">
-        <v>2.670488458</v>
+        <v>11.27</v>
       </c>
       <c r="E2" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="F2" t="n">
-        <v>30.19033624</v>
+        <v>33.1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.06</v>
+        <v>2.76</v>
       </c>
       <c r="H2" t="n">
-        <v>0.644086217</v>
+        <v>0.78</v>
       </c>
       <c r="I2" t="n">
-        <v>6.31756837</v>
+        <v>12.87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.030096426</v>
+        <v>8.32</v>
       </c>
       <c r="C3" t="n">
-        <v>6.528597607</v>
+        <v>9.135</v>
       </c>
       <c r="D3" t="n">
-        <v>3.646430551</v>
+        <v>10.42</v>
       </c>
       <c r="E3" t="n">
-        <v>2.76</v>
+        <v>3.4</v>
       </c>
       <c r="F3" t="n">
-        <v>30.86</v>
+        <v>29.76</v>
       </c>
       <c r="G3" t="n">
-        <v>2.31</v>
+        <v>2.99</v>
       </c>
       <c r="H3" t="n">
-        <v>0.80422847</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>5.95790243</v>
+        <v>9.148999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.014257617</v>
+        <v>8.085488947</v>
       </c>
       <c r="C4" t="n">
-        <v>8.043458040000001</v>
+        <v>9.709598479</v>
       </c>
       <c r="D4" t="n">
-        <v>4.873967778</v>
+        <v>9.32235453</v>
       </c>
       <c r="E4" t="n">
-        <v>2.73</v>
+        <v>3.343480504</v>
       </c>
       <c r="F4" t="n">
-        <v>32.2985011</v>
+        <v>30.74215589</v>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.765033336</v>
-      </c>
+        <v>3.316233068</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>6.537184831</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="F5" t="n">
-        <v>29.49</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7.06</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6.874520799</v>
-      </c>
-      <c r="C6" t="n">
-        <v>7.283944234</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.673436698</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="F6" t="n">
-        <v>26.61521651</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.792371386</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.385786617</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9.623445388</v>
-      </c>
-      <c r="C7" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11.27061058</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="F7" t="n">
-        <v>32.19312581</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.908131372</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10.51869232</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.856833676999999</v>
-      </c>
-      <c r="C8" t="n">
-        <v>8.93886314</v>
-      </c>
-      <c r="D8" t="n">
-        <v>13.26615226</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F8" t="n">
-        <v>34.44091013</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.053411162</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10.96327922</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="C9" t="n">
-        <v>9.852029581</v>
-      </c>
-      <c r="D9" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="F9" t="n">
-        <v>27.55</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="I9" t="n">
-        <v>10.69</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="C10" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="D10" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="F10" t="n">
-        <v>25.36</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="I10" t="n">
-        <v>12.84</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="D11" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="F11" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I11" t="n">
-        <v>12.91</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>11.13088259</v>
-      </c>
-      <c r="D12" t="n">
-        <v>11.27</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="F12" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="I12" t="n">
-        <v>12.87</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9.135</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>29.76</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9.148999999999999</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8.085488947</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9.709598479</v>
-      </c>
-      <c r="D14" t="n">
-        <v>9.32235453</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3.343480504</v>
-      </c>
-      <c r="F14" t="n">
-        <v>30.74215589</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3.316233068</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
         <v>10.13455735</v>
       </c>
     </row>
